--- a/IKTP-II/Projekt2/IPcimzes.xlsx
+++ b/IKTP-II/Projekt2/IPcimzes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B368A-C5FA-40E9-8D80-A5A4F57674EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32BEFD-6D40-412E-8B7D-AA36CA0260BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>Kipkop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kapott ip cím: 185.62.128.0 /22 </t>
-  </si>
-  <si>
-    <t>Budapest-net: 58 + 2 + 1 + 1 + 1 = 63</t>
-  </si>
-  <si>
-    <t>Kecskemét-Net: 28 + 2 + 1 + 1 = 32</t>
-  </si>
-  <si>
-    <t>Szeged-Net: 12 + 2 + 1 + 1 + 1</t>
-  </si>
-  <si>
     <t>I, K, S, O: 2 mindenütt</t>
   </si>
   <si>
@@ -143,6 +128,21 @@
   </si>
   <si>
     <t>185.62.128.239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP cím: 185.62.128.0 /22 </t>
+  </si>
+  <si>
+    <t>KONYVELES-NET: 12 + 2 + 1 + 1 + 1</t>
+  </si>
+  <si>
+    <t>MARKETING-NET: 28 + 2 + 1 + 1 = 32</t>
+  </si>
+  <si>
+    <t>VEZETOSEG-NET: 58 + 2 + 1 + 1 + 1 = 63</t>
+  </si>
+  <si>
+    <t>Szexshop</t>
   </si>
 </sst>
 </file>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,27 +479,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <f xml:space="preserve"> 17</f>
@@ -508,18 +508,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,114 +601,114 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/IKTP-II/Projekt2/IPcimzes.xlsx
+++ b/IKTP-II/Projekt2/IPcimzes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32BEFD-6D40-412E-8B7D-AA36CA0260BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F24FDE-878F-4AF0-8311-CAFCFD24A4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -55,9 +66,6 @@
     <t>185.62.128.126</t>
   </si>
   <si>
-    <t>185.62.128.127 (Budapest)</t>
-  </si>
-  <si>
     <t>185.62.128.128/26</t>
   </si>
   <si>
@@ -67,9 +75,6 @@
     <t>185.62.128.190</t>
   </si>
   <si>
-    <t>185.62.128.191 (Kecskemét)</t>
-  </si>
-  <si>
     <t>185.62.128.192/27</t>
   </si>
   <si>
@@ -79,9 +84,6 @@
     <t>185.62.128.222</t>
   </si>
   <si>
-    <t>185.62.128.223 (Szeged)</t>
-  </si>
-  <si>
     <t>185.62.128.224/30</t>
   </si>
   <si>
@@ -143,6 +145,15 @@
   </si>
   <si>
     <t>Szexshop</t>
+  </si>
+  <si>
+    <t>185.62.128.223</t>
+  </si>
+  <si>
+    <t>185.62.128.191</t>
+  </si>
+  <si>
+    <t>185.62.128.127</t>
   </si>
 </sst>
 </file>
@@ -463,7 +474,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,27 +490,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <f xml:space="preserve"> 17</f>
@@ -624,91 +635,91 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
         <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
         <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
         <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
